--- a/Code/Results/Cases/Case_2_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9887364248434831</v>
+        <v>1.019935090384098</v>
       </c>
       <c r="D2">
-        <v>1.008870589275374</v>
+        <v>1.025772014519371</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9970887432976724</v>
+        <v>1.031010098666089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038331098805415</v>
+        <v>1.029236789521426</v>
       </c>
       <c r="J2">
-        <v>1.011259327152773</v>
+        <v>1.025135044189006</v>
       </c>
       <c r="K2">
-        <v>1.020207710675183</v>
+        <v>1.028596608461961</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.008588786108259</v>
+        <v>1.033819454449791</v>
       </c>
       <c r="N2">
-        <v>1.012695431390396</v>
+        <v>1.026590853536389</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9933262761480111</v>
+        <v>1.020888860600917</v>
       </c>
       <c r="D3">
-        <v>1.012169280795927</v>
+        <v>1.026471517666629</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.002382227554664</v>
+        <v>1.032179677360702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039407211107901</v>
+        <v>1.029395159313322</v>
       </c>
       <c r="J3">
-        <v>1.014000541892015</v>
+        <v>1.02572576208916</v>
       </c>
       <c r="K3">
-        <v>1.022648785706956</v>
+        <v>1.02910377790706</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.01298471781092</v>
+        <v>1.034796538839376</v>
       </c>
       <c r="N3">
-        <v>1.015440538968989</v>
+        <v>1.027182410323716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.996231454780462</v>
+        <v>1.021506131702722</v>
       </c>
       <c r="D4">
-        <v>1.014259006716964</v>
+        <v>1.026924044155253</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.005734355970104</v>
+        <v>1.032936790795867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040077116495757</v>
+        <v>1.02949625073165</v>
       </c>
       <c r="J4">
-        <v>1.015732054068613</v>
+        <v>1.026107534605203</v>
       </c>
       <c r="K4">
-        <v>1.024188331049331</v>
+        <v>1.029431179792321</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.015764061560114</v>
+        <v>1.035428526798164</v>
       </c>
       <c r="N4">
-        <v>1.017174510091486</v>
+        <v>1.027564725000522</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9974378673919581</v>
+        <v>1.021765660360305</v>
       </c>
       <c r="D5">
-        <v>1.015127161944261</v>
+        <v>1.027114261640713</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.007126782979712</v>
+        <v>1.033255157681296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040352568373738</v>
+        <v>1.029538417788735</v>
       </c>
       <c r="J5">
-        <v>1.016450202076336</v>
+        <v>1.026267920797977</v>
       </c>
       <c r="K5">
-        <v>1.024826269862456</v>
+        <v>1.029568634404598</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.016917486457247</v>
+        <v>1.035694154584416</v>
       </c>
       <c r="N5">
-        <v>1.017893677951752</v>
+        <v>1.027725338960086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9976395704672841</v>
+        <v>1.02180923798869</v>
       </c>
       <c r="D6">
-        <v>1.01527233094096</v>
+        <v>1.0271461985191</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.007359611467992</v>
+        <v>1.033308617371369</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040398459879296</v>
+        <v>1.029545478357807</v>
       </c>
       <c r="J6">
-        <v>1.01657021811436</v>
+        <v>1.026294843823499</v>
       </c>
       <c r="K6">
-        <v>1.024932846152646</v>
+        <v>1.029591702763389</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.017110287519611</v>
+        <v>1.035738751146864</v>
       </c>
       <c r="N6">
-        <v>1.018013864426316</v>
+        <v>1.027752300219393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9962476328232495</v>
+        <v>1.02150959942822</v>
       </c>
       <c r="D7">
-        <v>1.014270647332216</v>
+        <v>1.026926585948715</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.005753026799489</v>
+        <v>1.032941044529189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040080821177582</v>
+        <v>1.029496815474006</v>
       </c>
       <c r="J7">
-        <v>1.0157416879984</v>
+        <v>1.026109678130034</v>
       </c>
       <c r="K7">
-        <v>1.024196891335863</v>
+        <v>1.029433017195864</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.015779531921798</v>
+        <v>1.035432076365049</v>
       </c>
       <c r="N7">
-        <v>1.017184157702558</v>
+        <v>1.027566871569404</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.990301355257929</v>
+        <v>1.020257396845266</v>
       </c>
       <c r="D8">
-        <v>1.00999487792088</v>
+        <v>1.026008434749557</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9988932699451591</v>
+        <v>1.031405297644351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038700335540736</v>
+        <v>1.029290597784223</v>
       </c>
       <c r="J8">
-        <v>1.012194684692389</v>
+        <v>1.025334775320225</v>
       </c>
       <c r="K8">
-        <v>1.021041143097236</v>
+        <v>1.0287681679348</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.010088253491605</v>
+        <v>1.034149716740197</v>
       </c>
       <c r="N8">
-        <v>1.013632117245005</v>
+        <v>1.026790868308722</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9792994920639788</v>
+        <v>1.018051775185107</v>
       </c>
       <c r="D9">
-        <v>1.002101114937163</v>
+        <v>1.024389821639464</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9862122226036476</v>
+        <v>1.028701535045164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036058429336331</v>
+        <v>1.028916627718677</v>
       </c>
       <c r="J9">
-        <v>1.005605028832429</v>
+        <v>1.023965784925101</v>
       </c>
       <c r="K9">
-        <v>1.015160194750578</v>
+        <v>1.027590744355421</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9995330293248977</v>
+        <v>1.031888106625069</v>
       </c>
       <c r="N9">
-        <v>1.00703310331788</v>
+        <v>1.025419933790212</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9715710962405303</v>
+        <v>1.016581997332842</v>
       </c>
       <c r="D10">
-        <v>0.9965721817818405</v>
+        <v>1.023310323809645</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9773091272597348</v>
+        <v>1.026900630164901</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034145844688946</v>
+        <v>1.028660214869633</v>
       </c>
       <c r="J10">
-        <v>1.000959883221404</v>
+        <v>1.023050790540383</v>
       </c>
       <c r="K10">
-        <v>1.01100360358843</v>
+        <v>1.026801882328875</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9921005252237839</v>
+        <v>1.030379057885528</v>
       </c>
       <c r="N10">
-        <v>1.002381361067282</v>
+        <v>1.024503640008516</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9681209909638658</v>
+        <v>1.015945721378117</v>
       </c>
       <c r="D11">
-        <v>0.9941088327184324</v>
+        <v>1.022842800760564</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9733351325543487</v>
+        <v>1.026121192633271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033279185739823</v>
+        <v>1.028547505223868</v>
       </c>
       <c r="J11">
-        <v>0.9988828562872971</v>
+        <v>1.022654039542685</v>
       </c>
       <c r="K11">
-        <v>1.00914270959851</v>
+        <v>1.026459375519791</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9887780593942006</v>
+        <v>1.029725309115907</v>
       </c>
       <c r="N11">
-        <v>1.00030138451669</v>
+        <v>1.024106325578894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9668229442796393</v>
+        <v>1.015709402477307</v>
       </c>
       <c r="D12">
-        <v>0.9931828632252057</v>
+        <v>1.022669128740722</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9718399992946232</v>
+        <v>1.025831729195445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032951244133339</v>
+        <v>1.028505387529081</v>
       </c>
       <c r="J12">
-        <v>0.998100949378068</v>
+        <v>1.022506585925843</v>
       </c>
       <c r="K12">
-        <v>1.008441844696863</v>
+        <v>1.026332014893296</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9875273447813641</v>
+        <v>1.029482429107272</v>
       </c>
       <c r="N12">
-        <v>0.9995183672099641</v>
+        <v>1.023958662561002</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9671021435376568</v>
+        <v>1.015760092671327</v>
       </c>
       <c r="D13">
-        <v>0.9933819928408754</v>
+        <v>1.022706382559117</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9721615904498673</v>
+        <v>1.025893817635658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033021865504401</v>
+        <v>1.028514433331056</v>
       </c>
       <c r="J13">
-        <v>0.9982691511893245</v>
+        <v>1.022538218960665</v>
       </c>
       <c r="K13">
-        <v>1.008592627087437</v>
+        <v>1.026359340432124</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9877963948471401</v>
+        <v>1.029534529899998</v>
       </c>
       <c r="N13">
-        <v>0.9996868078870856</v>
+        <v>1.023990340518362</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9680140368678861</v>
+        <v>1.01592618672788</v>
       </c>
       <c r="D14">
-        <v>0.9940325190230395</v>
+        <v>1.02282844524024</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9732119392642684</v>
+        <v>1.026097264389885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033252202378674</v>
+        <v>1.028544028907668</v>
       </c>
       <c r="J14">
-        <v>0.9988184392064954</v>
+        <v>1.02264185266429</v>
       </c>
       <c r="K14">
-        <v>1.009084975523748</v>
+        <v>1.026448850669892</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9886750194365864</v>
+        <v>1.029705233572655</v>
       </c>
       <c r="N14">
-        <v>1.000236875956245</v>
+        <v>1.024094121393733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9685736651514437</v>
+        <v>1.016028525719925</v>
       </c>
       <c r="D15">
-        <v>0.9944318582195614</v>
+        <v>1.022903650371465</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9738565381428178</v>
+        <v>1.026222621834461</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033393314473847</v>
+        <v>1.028562230293102</v>
       </c>
       <c r="J15">
-        <v>0.9991554777143864</v>
+        <v>1.022705693870767</v>
       </c>
       <c r="K15">
-        <v>1.009387034708383</v>
+        <v>1.026503982564877</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9892141390667686</v>
+        <v>1.029810403285672</v>
       </c>
       <c r="N15">
-        <v>1.000574393097476</v>
+        <v>1.024158053262046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9717978049689925</v>
+        <v>1.016624227994062</v>
       </c>
       <c r="D16">
-        <v>0.9967341593356204</v>
+        <v>1.023341349883126</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9775702670086689</v>
+        <v>1.026952366526338</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03420253066321</v>
+        <v>1.028667659639573</v>
       </c>
       <c r="J16">
-        <v>1.001096300079955</v>
+        <v>1.023077109989907</v>
       </c>
       <c r="K16">
-        <v>1.011125779014161</v>
+        <v>1.026824593947734</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9923187522751816</v>
+        <v>1.030422438245078</v>
       </c>
       <c r="N16">
-        <v>1.002517971653419</v>
+        <v>1.024529996834677</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9737918225367924</v>
+        <v>1.01699793590305</v>
       </c>
       <c r="D17">
-        <v>0.9981593985228104</v>
+        <v>1.023615882851956</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9798671751046245</v>
+        <v>1.027410213668432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034699658783866</v>
+        <v>1.02873334276864</v>
       </c>
       <c r="J17">
-        <v>1.002295780102728</v>
+        <v>1.023309941872359</v>
       </c>
       <c r="K17">
-        <v>1.01219977729986</v>
+        <v>1.027025457895555</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9942376608158001</v>
+        <v>1.030806265442993</v>
       </c>
       <c r="N17">
-        <v>1.003719155075407</v>
+        <v>1.024763159365109</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9749449657182373</v>
+        <v>1.017215927630457</v>
       </c>
       <c r="D18">
-        <v>0.9989840716872967</v>
+        <v>1.02377600422051</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9811955336656734</v>
+        <v>1.02767730353321</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034985928124184</v>
+        <v>1.028771492398271</v>
       </c>
       <c r="J18">
-        <v>1.002989121319451</v>
+        <v>1.023445695448437</v>
       </c>
       <c r="K18">
-        <v>1.012820364449718</v>
+        <v>1.027142529216912</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9953469480559127</v>
+        <v>1.031030114438535</v>
       </c>
       <c r="N18">
-        <v>1.004413480916184</v>
+        <v>1.024899105726836</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9753365004900377</v>
+        <v>1.017290259584618</v>
       </c>
       <c r="D19">
-        <v>0.9992641532572504</v>
+        <v>1.023830599904323</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.981646571283143</v>
+        <v>1.02776838029443</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035082918525522</v>
+        <v>1.028784472911279</v>
       </c>
       <c r="J19">
-        <v>1.003224480805424</v>
+        <v>1.023491974854436</v>
       </c>
       <c r="K19">
-        <v>1.013030988772246</v>
+        <v>1.027182432362655</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9957235214137679</v>
+        <v>1.03110643593043</v>
       </c>
       <c r="N19">
-        <v>1.004649174639624</v>
+        <v>1.0249454508549</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9735789174238384</v>
+        <v>1.016957839108426</v>
       </c>
       <c r="D20">
-        <v>0.9980071750739181</v>
+        <v>1.023586428993997</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9796219246538774</v>
+        <v>1.027361087348813</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034646705737052</v>
+        <v>1.028726312368594</v>
       </c>
       <c r="J20">
-        <v>1.002167742182679</v>
+        <v>1.023284966727526</v>
       </c>
       <c r="K20">
-        <v>1.012085156650701</v>
+        <v>1.027003916319613</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9940328189980372</v>
+        <v>1.030765087617781</v>
       </c>
       <c r="N20">
-        <v>1.003590935326826</v>
+        <v>1.024738148752705</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9677459711665539</v>
+        <v>1.015877275550683</v>
       </c>
       <c r="D21">
-        <v>0.993841262893152</v>
+        <v>1.022792501178711</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9729031723451452</v>
+        <v>1.02603735289596</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033184542295325</v>
+        <v>1.028535320710971</v>
       </c>
       <c r="J21">
-        <v>0.998656979432716</v>
+        <v>1.022611337399712</v>
       </c>
       <c r="K21">
-        <v>1.0089402614355</v>
+        <v>1.026422495950715</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9884167527908654</v>
+        <v>1.029654966940943</v>
       </c>
       <c r="N21">
-        <v>1.000075186891067</v>
+        <v>1.02406356279398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9639824363292844</v>
+        <v>1.015198011560537</v>
       </c>
       <c r="D22">
-        <v>0.9911581971197867</v>
+        <v>1.022293251643993</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9685681712353539</v>
+        <v>1.025205382732105</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032230223899503</v>
+        <v>1.028413776996263</v>
       </c>
       <c r="J22">
-        <v>0.9963891125681364</v>
+        <v>1.022187322004886</v>
       </c>
       <c r="K22">
-        <v>1.006906870595314</v>
+        <v>1.026056133710784</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.984789117539825</v>
+        <v>1.028956708573876</v>
       </c>
       <c r="N22">
-        <v>0.9978040993954119</v>
+        <v>1.023638945248659</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9659870069689258</v>
+        <v>1.015558089956044</v>
       </c>
       <c r="D23">
-        <v>0.9925867871841052</v>
+        <v>1.022557920140958</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9708771362198517</v>
+        <v>1.025646396287909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03273952954544</v>
+        <v>1.028478347891084</v>
       </c>
       <c r="J23">
-        <v>0.9975972804829288</v>
+        <v>1.022412145768047</v>
       </c>
       <c r="K23">
-        <v>1.007990291901761</v>
+        <v>1.026250424938832</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9867216917446229</v>
+        <v>1.029326895364343</v>
       </c>
       <c r="N23">
-        <v>0.999013983047222</v>
+        <v>1.02386408828735</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9736751507078361</v>
+        <v>1.016975957079909</v>
       </c>
       <c r="D24">
-        <v>0.9980759787913506</v>
+        <v>1.023599737952642</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9797327778868967</v>
+        <v>1.027383285308451</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034670644346851</v>
+        <v>1.028729489605007</v>
       </c>
       <c r="J24">
-        <v>1.002225616421606</v>
+        <v>1.023296252085153</v>
       </c>
       <c r="K24">
-        <v>1.012136966856325</v>
+        <v>1.027013650306209</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.99412540896798</v>
+        <v>1.030783694199805</v>
       </c>
       <c r="N24">
-        <v>1.00364889175381</v>
+        <v>1.024749450136835</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.982209911594733</v>
+        <v>1.018621870406218</v>
       </c>
       <c r="D25">
-        <v>1.004186873441458</v>
+        <v>1.024808350554223</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9895658207198051</v>
+        <v>1.029400238150842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036767272125318</v>
+        <v>1.029014560694303</v>
       </c>
       <c r="J25">
-        <v>1.007351182558472</v>
+        <v>1.024320115173833</v>
       </c>
       <c r="K25">
-        <v>1.016720539436667</v>
+        <v>1.027895828926742</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.00232830263308</v>
+        <v>1.032473016835119</v>
       </c>
       <c r="N25">
-        <v>1.0087817367825</v>
+        <v>1.025774767228539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019935090384098</v>
+        <v>0.9887364248434832</v>
       </c>
       <c r="D2">
-        <v>1.025772014519371</v>
+        <v>1.008870589275374</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.031010098666089</v>
+        <v>0.9970887432976721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029236789521426</v>
+        <v>1.038331098805415</v>
       </c>
       <c r="J2">
-        <v>1.025135044189006</v>
+        <v>1.011259327152774</v>
       </c>
       <c r="K2">
-        <v>1.028596608461961</v>
+        <v>1.020207710675183</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.033819454449791</v>
+        <v>1.008588786108258</v>
       </c>
       <c r="N2">
-        <v>1.026590853536389</v>
+        <v>1.012695431390397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020888860600917</v>
+        <v>0.9933262761480125</v>
       </c>
       <c r="D3">
-        <v>1.026471517666629</v>
+        <v>1.012169280795929</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.032179677360702</v>
+        <v>1.002382227554666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029395159313322</v>
+        <v>1.039407211107902</v>
       </c>
       <c r="J3">
-        <v>1.02572576208916</v>
+        <v>1.014000541892016</v>
       </c>
       <c r="K3">
-        <v>1.02910377790706</v>
+        <v>1.022648785706958</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.034796538839376</v>
+        <v>1.012984717810921</v>
       </c>
       <c r="N3">
-        <v>1.027182410323716</v>
+        <v>1.015440538968991</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021506131702722</v>
+        <v>0.9962314547804614</v>
       </c>
       <c r="D4">
-        <v>1.026924044155253</v>
+        <v>1.014259006716964</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.032936790795867</v>
+        <v>1.005734355970104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02949625073165</v>
+        <v>1.040077116495757</v>
       </c>
       <c r="J4">
-        <v>1.026107534605203</v>
+        <v>1.015732054068612</v>
       </c>
       <c r="K4">
-        <v>1.029431179792321</v>
+        <v>1.024188331049331</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.035428526798164</v>
+        <v>1.015764061560113</v>
       </c>
       <c r="N4">
-        <v>1.027564725000522</v>
+        <v>1.017174510091485</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021765660360305</v>
+        <v>0.9974378673919581</v>
       </c>
       <c r="D5">
-        <v>1.027114261640713</v>
+        <v>1.015127161944261</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.033255157681296</v>
+        <v>1.007126782979712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029538417788735</v>
+        <v>1.040352568373738</v>
       </c>
       <c r="J5">
-        <v>1.026267920797977</v>
+        <v>1.016450202076336</v>
       </c>
       <c r="K5">
-        <v>1.029568634404598</v>
+        <v>1.024826269862456</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.035694154584416</v>
+        <v>1.016917486457247</v>
       </c>
       <c r="N5">
-        <v>1.027725338960086</v>
+        <v>1.017893677951752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02180923798869</v>
+        <v>0.9976395704672835</v>
       </c>
       <c r="D6">
-        <v>1.0271461985191</v>
+        <v>1.01527233094096</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.033308617371369</v>
+        <v>1.007359611467992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029545478357807</v>
+        <v>1.040398459879295</v>
       </c>
       <c r="J6">
-        <v>1.026294843823499</v>
+        <v>1.01657021811436</v>
       </c>
       <c r="K6">
-        <v>1.029591702763389</v>
+        <v>1.024932846152645</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.035738751146864</v>
+        <v>1.017110287519611</v>
       </c>
       <c r="N6">
-        <v>1.027752300219393</v>
+        <v>1.018013864426315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02150959942822</v>
+        <v>0.9962476328232495</v>
       </c>
       <c r="D7">
-        <v>1.026926585948715</v>
+        <v>1.014270647332216</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.032941044529189</v>
+        <v>1.005753026799489</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029496815474006</v>
+        <v>1.040080821177582</v>
       </c>
       <c r="J7">
-        <v>1.026109678130034</v>
+        <v>1.0157416879984</v>
       </c>
       <c r="K7">
-        <v>1.029433017195864</v>
+        <v>1.024196891335862</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.035432076365049</v>
+        <v>1.015779531921798</v>
       </c>
       <c r="N7">
-        <v>1.027566871569404</v>
+        <v>1.017184157702557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020257396845266</v>
+        <v>0.9903013552579296</v>
       </c>
       <c r="D8">
-        <v>1.026008434749557</v>
+        <v>1.00999487792088</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.031405297644351</v>
+        <v>0.9988932699451595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029290597784223</v>
+        <v>1.038700335540737</v>
       </c>
       <c r="J8">
-        <v>1.025334775320225</v>
+        <v>1.01219468469239</v>
       </c>
       <c r="K8">
-        <v>1.0287681679348</v>
+        <v>1.021041143097236</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.034149716740197</v>
+        <v>1.010088253491605</v>
       </c>
       <c r="N8">
-        <v>1.026790868308722</v>
+        <v>1.013632117245006</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018051775185107</v>
+        <v>0.9792994920639783</v>
       </c>
       <c r="D9">
-        <v>1.024389821639464</v>
+        <v>1.002101114937163</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.028701535045164</v>
+        <v>0.986212222603647</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028916627718677</v>
+        <v>1.036058429336331</v>
       </c>
       <c r="J9">
-        <v>1.023965784925101</v>
+        <v>1.005605028832428</v>
       </c>
       <c r="K9">
-        <v>1.027590744355421</v>
+        <v>1.015160194750577</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.031888106625069</v>
+        <v>0.9995330293248972</v>
       </c>
       <c r="N9">
-        <v>1.025419933790212</v>
+        <v>1.007033103317879</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016581997332842</v>
+        <v>0.971571096240531</v>
       </c>
       <c r="D10">
-        <v>1.023310323809645</v>
+        <v>0.9965721817818409</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.026900630164901</v>
+        <v>0.9773091272597352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028660214869633</v>
+        <v>1.034145844688946</v>
       </c>
       <c r="J10">
-        <v>1.023050790540383</v>
+        <v>1.000959883221405</v>
       </c>
       <c r="K10">
-        <v>1.026801882328875</v>
+        <v>1.011003603588431</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.030379057885528</v>
+        <v>0.9921005252237842</v>
       </c>
       <c r="N10">
-        <v>1.024503640008516</v>
+        <v>1.002381361067282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015945721378117</v>
+        <v>0.9681209909638667</v>
       </c>
       <c r="D11">
-        <v>1.022842800760564</v>
+        <v>0.9941088327184335</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.026121192633271</v>
+        <v>0.9733351325543498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028547505223868</v>
+        <v>1.033279185739824</v>
       </c>
       <c r="J11">
-        <v>1.022654039542685</v>
+        <v>0.9988828562872981</v>
       </c>
       <c r="K11">
-        <v>1.026459375519791</v>
+        <v>1.009142709598511</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.029725309115907</v>
+        <v>0.9887780593942015</v>
       </c>
       <c r="N11">
-        <v>1.024106325578894</v>
+        <v>1.000301384516691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015709402477307</v>
+        <v>0.9668229442796393</v>
       </c>
       <c r="D12">
-        <v>1.022669128740722</v>
+        <v>0.9931828632252055</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.025831729195445</v>
+        <v>0.9718399992946228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028505387529081</v>
+        <v>1.032951244133339</v>
       </c>
       <c r="J12">
-        <v>1.022506585925843</v>
+        <v>0.9981009493780679</v>
       </c>
       <c r="K12">
-        <v>1.026332014893296</v>
+        <v>1.008441844696863</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.029482429107272</v>
+        <v>0.9875273447813637</v>
       </c>
       <c r="N12">
-        <v>1.023958662561002</v>
+        <v>0.9995183672099636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015760092671327</v>
+        <v>0.9671021435376553</v>
       </c>
       <c r="D13">
-        <v>1.022706382559117</v>
+        <v>0.9933819928408738</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.025893817635658</v>
+        <v>0.9721615904498657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028514433331056</v>
+        <v>1.033021865504401</v>
       </c>
       <c r="J13">
-        <v>1.022538218960665</v>
+        <v>0.998269151189323</v>
       </c>
       <c r="K13">
-        <v>1.026359340432124</v>
+        <v>1.008592627087435</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.029534529899998</v>
+        <v>0.9877963948471387</v>
       </c>
       <c r="N13">
-        <v>1.023990340518362</v>
+        <v>0.9996868078870841</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01592618672788</v>
+        <v>0.9680140368678865</v>
       </c>
       <c r="D14">
-        <v>1.02282844524024</v>
+        <v>0.9940325190230398</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.026097264389885</v>
+        <v>0.9732119392642682</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028544028907668</v>
+        <v>1.033252202378674</v>
       </c>
       <c r="J14">
-        <v>1.02264185266429</v>
+        <v>0.9988184392064957</v>
       </c>
       <c r="K14">
-        <v>1.026448850669892</v>
+        <v>1.009084975523749</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.029705233572655</v>
+        <v>0.9886750194365863</v>
       </c>
       <c r="N14">
-        <v>1.024094121393733</v>
+        <v>1.000236875956245</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016028525719925</v>
+        <v>0.9685736651514441</v>
       </c>
       <c r="D15">
-        <v>1.022903650371465</v>
+        <v>0.9944318582195617</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.026222621834461</v>
+        <v>0.9738565381428181</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028562230293102</v>
+        <v>1.033393314473848</v>
       </c>
       <c r="J15">
-        <v>1.022705693870767</v>
+        <v>0.9991554777143867</v>
       </c>
       <c r="K15">
-        <v>1.026503982564877</v>
+        <v>1.009387034708384</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.029810403285672</v>
+        <v>0.9892141390667689</v>
       </c>
       <c r="N15">
-        <v>1.024158053262046</v>
+        <v>1.000574393097476</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016624227994062</v>
+        <v>0.9717978049689932</v>
       </c>
       <c r="D16">
-        <v>1.023341349883126</v>
+        <v>0.9967341593356208</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.026952366526338</v>
+        <v>0.9775702670086697</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028667659639573</v>
+        <v>1.034202530663211</v>
       </c>
       <c r="J16">
-        <v>1.023077109989907</v>
+        <v>1.001096300079956</v>
       </c>
       <c r="K16">
-        <v>1.026824593947734</v>
+        <v>1.011125779014161</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.030422438245078</v>
+        <v>0.9923187522751822</v>
       </c>
       <c r="N16">
-        <v>1.024529996834677</v>
+        <v>1.002517971653419</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01699793590305</v>
+        <v>0.9737918225367912</v>
       </c>
       <c r="D17">
-        <v>1.023615882851956</v>
+        <v>0.9981593985228097</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.027410213668432</v>
+        <v>0.9798671751046234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02873334276864</v>
+        <v>1.034699658783866</v>
       </c>
       <c r="J17">
-        <v>1.023309941872359</v>
+        <v>1.002295780102727</v>
       </c>
       <c r="K17">
-        <v>1.027025457895555</v>
+        <v>1.012199777299859</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.030806265442993</v>
+        <v>0.994237660815799</v>
       </c>
       <c r="N17">
-        <v>1.024763159365109</v>
+        <v>1.003719155075406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017215927630457</v>
+        <v>0.9749449657182375</v>
       </c>
       <c r="D18">
-        <v>1.02377600422051</v>
+        <v>0.998984071687297</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.02767730353321</v>
+        <v>0.9811955336656737</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028771492398271</v>
+        <v>1.034985928124184</v>
       </c>
       <c r="J18">
-        <v>1.023445695448437</v>
+        <v>1.002989121319451</v>
       </c>
       <c r="K18">
-        <v>1.027142529216912</v>
+        <v>1.012820364449718</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.031030114438535</v>
+        <v>0.9953469480559132</v>
       </c>
       <c r="N18">
-        <v>1.024899105726836</v>
+        <v>1.004413480916185</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017290259584618</v>
+        <v>0.9753365004900372</v>
       </c>
       <c r="D19">
-        <v>1.023830599904323</v>
+        <v>0.9992641532572497</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.02776838029443</v>
+        <v>0.9816465712831424</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028784472911279</v>
+        <v>1.035082918525522</v>
       </c>
       <c r="J19">
-        <v>1.023491974854436</v>
+        <v>1.003224480805423</v>
       </c>
       <c r="K19">
-        <v>1.027182432362655</v>
+        <v>1.013030988772246</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.03110643593043</v>
+        <v>0.9957235214137673</v>
       </c>
       <c r="N19">
-        <v>1.0249454508549</v>
+        <v>1.004649174639623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016957839108426</v>
+        <v>0.9735789174238391</v>
       </c>
       <c r="D20">
-        <v>1.023586428993997</v>
+        <v>0.9980071750739183</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.027361087348813</v>
+        <v>0.9796219246538775</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028726312368594</v>
+        <v>1.034646705737052</v>
       </c>
       <c r="J20">
-        <v>1.023284966727526</v>
+        <v>1.00216774218268</v>
       </c>
       <c r="K20">
-        <v>1.027003916319613</v>
+        <v>1.012085156650701</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.030765087617781</v>
+        <v>0.9940328189980373</v>
       </c>
       <c r="N20">
-        <v>1.024738148752705</v>
+        <v>1.003590935326826</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015877275550683</v>
+        <v>0.9677459711665549</v>
       </c>
       <c r="D21">
-        <v>1.022792501178711</v>
+        <v>0.9938412628931527</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.02603735289596</v>
+        <v>0.9729031723451457</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028535320710971</v>
+        <v>1.033184542295325</v>
       </c>
       <c r="J21">
-        <v>1.022611337399712</v>
+        <v>0.9986569794327168</v>
       </c>
       <c r="K21">
-        <v>1.026422495950715</v>
+        <v>1.008940261435501</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.029654966940943</v>
+        <v>0.9884167527908658</v>
       </c>
       <c r="N21">
-        <v>1.02406356279398</v>
+        <v>1.000075186891068</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015198011560537</v>
+        <v>0.9639824363292853</v>
       </c>
       <c r="D22">
-        <v>1.022293251643993</v>
+        <v>0.9911581971197871</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.025205382732105</v>
+        <v>0.9685681712353543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028413776996263</v>
+        <v>1.032230223899503</v>
       </c>
       <c r="J22">
-        <v>1.022187322004886</v>
+        <v>0.9963891125681371</v>
       </c>
       <c r="K22">
-        <v>1.026056133710784</v>
+        <v>1.006906870595315</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.028956708573876</v>
+        <v>0.9847891175398256</v>
       </c>
       <c r="N22">
-        <v>1.023638945248659</v>
+        <v>0.9978040993954125</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015558089956044</v>
+        <v>0.9659870069689261</v>
       </c>
       <c r="D23">
-        <v>1.022557920140958</v>
+        <v>0.9925867871841056</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.025646396287909</v>
+        <v>0.9708771362198523</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028478347891084</v>
+        <v>1.03273952954544</v>
       </c>
       <c r="J23">
-        <v>1.022412145768047</v>
+        <v>0.9975972804829291</v>
       </c>
       <c r="K23">
-        <v>1.026250424938832</v>
+        <v>1.007990291901761</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.029326895364343</v>
+        <v>0.9867216917446235</v>
       </c>
       <c r="N23">
-        <v>1.02386408828735</v>
+        <v>0.9990139830472223</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016975957079909</v>
+        <v>0.9736751507078364</v>
       </c>
       <c r="D24">
-        <v>1.023599737952642</v>
+        <v>0.9980759787913508</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.027383285308451</v>
+        <v>0.9797327778868964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028729489605007</v>
+        <v>1.034670644346851</v>
       </c>
       <c r="J24">
-        <v>1.023296252085153</v>
+        <v>1.002225616421606</v>
       </c>
       <c r="K24">
-        <v>1.027013650306209</v>
+        <v>1.012136966856326</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.030783694199805</v>
+        <v>0.9941254089679796</v>
       </c>
       <c r="N24">
-        <v>1.024749450136835</v>
+        <v>1.00364889175381</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018621870406218</v>
+        <v>0.9822099115947333</v>
       </c>
       <c r="D25">
-        <v>1.024808350554223</v>
+        <v>1.004186873441459</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.029400238150842</v>
+        <v>0.9895658207198054</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029014560694303</v>
+        <v>1.036767272125318</v>
       </c>
       <c r="J25">
-        <v>1.024320115173833</v>
+        <v>1.007351182558472</v>
       </c>
       <c r="K25">
-        <v>1.027895828926742</v>
+        <v>1.016720539436667</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.032473016835119</v>
+        <v>1.00232830263308</v>
       </c>
       <c r="N25">
-        <v>1.025774767228539</v>
+        <v>1.0087817367825</v>
       </c>
     </row>
   </sheetData>
